--- a/IntegrationPlan.xlsx
+++ b/IntegrationPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefanie Nielson\Documents\GitHub\MicrowaveHandIn2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00194259-719C-41D7-97A7-8FB4166E7431}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3175B2CF-8977-4A7D-BE2A-4F0555A76CC0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{14518D7A-741C-483D-AF6D-D7CEDCE24808}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>Step</t>
   </si>
@@ -439,19 +439,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A32BBF-F78D-4119-A4BA-352BD883194D}">
-  <dimension ref="F5:O15"/>
+  <dimension ref="F5:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F6" s="3">
         <v>1</v>
       </c>
@@ -501,7 +501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F7" s="3">
         <v>2</v>
       </c>
@@ -519,7 +519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F8" s="3">
         <v>3</v>
       </c>
@@ -537,7 +537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F9" s="3">
         <v>4</v>
       </c>
@@ -559,7 +559,7 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F10" s="3">
         <v>5</v>
       </c>
@@ -577,7 +577,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F11" s="3">
         <v>6</v>
       </c>
@@ -585,19 +585,17 @@
         <v>10</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F12" s="3">
         <v>7</v>
       </c>
@@ -606,44 +604,44 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F13" s="3">
         <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F14" s="3">
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -651,35 +649,53 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F15" s="3">
         <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="F16" s="3">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" t="s">
         <v>11</v>
       </c>
     </row>

--- a/IntegrationPlan.xlsx
+++ b/IntegrationPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefanie Nielson\Documents\GitHub\MicrowaveHandIn2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3175B2CF-8977-4A7D-BE2A-4F0555A76CC0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D917DEEC-1CDB-4031-9511-CBD59251C025}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{14518D7A-741C-483D-AF6D-D7CEDCE24808}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>Step</t>
   </si>
@@ -442,7 +442,7 @@
   <dimension ref="F5:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -541,7 +541,9 @@
       <c r="F9" s="3">
         <v>4</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>10</v>
       </c>

--- a/IntegrationPlan.xlsx
+++ b/IntegrationPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefanie Nielson\Documents\GitHub\MicrowaveHandIn2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D917DEEC-1CDB-4031-9511-CBD59251C025}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286C4816-6281-49FF-AAA4-A3F48C98ADC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{14518D7A-741C-483D-AF6D-D7CEDCE24808}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
   <si>
     <t>Step</t>
   </si>
@@ -441,17 +441,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A32BBF-F78D-4119-A4BA-352BD883194D}">
   <dimension ref="F5:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="15.86328125" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="6:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F6" s="3">
         <v>1</v>
       </c>
@@ -501,7 +501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="6:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F7" s="3">
         <v>2</v>
       </c>
@@ -519,7 +519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F8" s="3">
         <v>3</v>
       </c>
@@ -537,85 +537,111 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F9" s="3">
         <v>4</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="6:15" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="M10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F11" s="3">
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="M11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F12" s="3">
         <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="O12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F13" s="3">
         <v>8</v>
       </c>
@@ -623,85 +649,114 @@
         <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="O13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F14" s="3">
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="6:15" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F15" s="3">
         <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L15" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="O15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F16" s="3">
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IntegrationPlan.xlsx
+++ b/IntegrationPlan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefanie Nielson\Documents\GitHub\MicrowaveHandIn2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\GitHandins\MicrowaveHandIn2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286C4816-6281-49FF-AAA4-A3F48C98ADC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{14518D7A-741C-483D-AF6D-D7CEDCE24808}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="13">
   <si>
     <t>Step</t>
   </si>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,9 +142,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -289,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,11 +437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A32BBF-F78D-4119-A4BA-352BD883194D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +573,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
@@ -655,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>11</v>
@@ -709,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>10</v>
@@ -723,8 +722,12 @@
       <c r="L15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="O15" s="1" t="s">
         <v>12</v>
       </c>
@@ -737,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>12</v>
@@ -746,10 +749,16 @@
         <v>11</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>12</v>
